--- a/linkedin_profiles.xlsx
+++ b/linkedin_profiles.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Greater Pittsburgh Region  Contact Info</t>
+          <t>Greater Pittsburgh Region</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lake Villa, Illinois, United States  Contact Info</t>
+          <t>Lake Villa, Illinois, United States</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -617,9 +617,21 @@
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DeMillo</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Farmington, New York, United States</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/christopherdemillo/</t>
@@ -628,9 +640,21 @@
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pond</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Coraopolis, Pennsylvania, United States</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/ericpond/</t>
